--- a/HAMMOND_Data.xlsx
+++ b/HAMMOND_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="6336"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="6336" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Profiles" sheetId="2" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>deg</t>
   </si>
   <si>
-    <t>not available yet!</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>Arthur Capet (b)</t>
+  </si>
+  <si>
+    <t>not available yet</t>
   </si>
 </sst>
 </file>
@@ -329,7 +329,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="170" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -416,7 +416,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,22 +759,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1</v>
@@ -783,22 +783,22 @@
         <v>6</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>2</v>
@@ -807,45 +807,45 @@
         <v>7</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11">
@@ -905,7 +905,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
@@ -973,7 +973,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11">
@@ -1041,7 +1041,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11">
@@ -1109,7 +1109,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11">
@@ -1313,7 +1313,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11">
@@ -1449,7 +1449,7 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11">
@@ -1635,7 +1635,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11">
@@ -1703,7 +1703,7 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11">
@@ -1761,7 +1761,7 @@
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11">
@@ -1829,7 +1829,7 @@
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11">
@@ -1897,7 +1897,7 @@
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
@@ -1965,7 +1965,7 @@
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
@@ -2033,7 +2033,7 @@
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11">
@@ -2093,7 +2093,7 @@
     </row>
     <row r="21" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11">
@@ -2162,7 +2162,7 @@
     </row>
     <row r="22" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11">
@@ -2231,7 +2231,7 @@
     </row>
     <row r="23" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11">
@@ -2300,7 +2300,7 @@
     </row>
     <row r="24" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="25" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11">
@@ -2438,7 +2438,7 @@
     </row>
     <row r="26" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11">
@@ -2507,7 +2507,7 @@
     </row>
     <row r="27" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11">
@@ -2576,7 +2576,7 @@
     </row>
     <row r="28" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11">
@@ -2645,7 +2645,7 @@
     </row>
     <row r="29" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11">
@@ -2714,7 +2714,7 @@
     </row>
     <row r="30" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11">
@@ -2777,7 +2777,7 @@
     </row>
     <row r="31" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="32" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11">
@@ -2907,7 +2907,7 @@
     </row>
     <row r="33" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11">
@@ -2976,7 +2976,7 @@
     </row>
     <row r="34" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11">
@@ -3045,7 +3045,7 @@
     </row>
     <row r="35" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11">
@@ -3114,7 +3114,7 @@
     </row>
     <row r="36" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11">
@@ -3183,7 +3183,7 @@
     </row>
     <row r="37" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11">
@@ -3252,7 +3252,7 @@
     </row>
     <row r="38" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11">
@@ -3319,7 +3319,7 @@
     </row>
     <row r="39" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11">
@@ -3386,7 +3386,7 @@
     </row>
     <row r="40" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11">
@@ -3447,7 +3447,7 @@
     </row>
     <row r="41" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11">
@@ -3516,7 +3516,7 @@
     </row>
     <row r="42" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11">
@@ -3585,7 +3585,7 @@
     </row>
     <row r="43" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11">
@@ -3654,7 +3654,7 @@
     </row>
     <row r="44" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11">
@@ -3723,7 +3723,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11">
@@ -3791,7 +3791,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11">
@@ -3859,7 +3859,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11">
@@ -3927,7 +3927,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11">
@@ -3991,7 +3991,7 @@
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11">
@@ -4059,7 +4059,7 @@
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11">
@@ -4125,7 +4125,7 @@
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11">
@@ -4187,7 +4187,7 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11">
@@ -4249,7 +4249,7 @@
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11">
@@ -4317,7 +4317,7 @@
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11">
@@ -4385,7 +4385,7 @@
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11">
@@ -4453,7 +4453,7 @@
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11">
@@ -4521,7 +4521,7 @@
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11">
@@ -4589,7 +4589,7 @@
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11">
@@ -4657,7 +4657,7 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11">
@@ -4725,7 +4725,7 @@
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11">
@@ -4821,34 +4821,34 @@
         <v>12</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>13</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -4909,7 +4909,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -4958,7 +4958,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -5026,7 +5026,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -5074,7 +5074,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -5149,7 +5149,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -5158,66 +5158,66 @@
         <v>10</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="M1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>12.468036529680365</v>
@@ -5226,7 +5226,7 @@
         <v>44.2268326417704</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2">
         <v>0.68</v>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>12.536529680365296</v>
@@ -5246,7 +5246,7 @@
         <v>44.253803596127248</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>0.8</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>12.629756468797565</v>
@@ -5266,7 +5266,7 @@
         <v>44.289764868603044</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>0.82</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>12.844748858447488</v>
@@ -5286,7 +5286,7 @@
         <v>44.374827109266946</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5">
         <v>0.7</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>12.379566210045661</v>
@@ -5306,7 +5306,7 @@
         <v>44.742738589211619</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6">
         <v>0.86</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>12.479452054794521</v>
@@ -5326,7 +5326,7 @@
         <v>44.744813278008301</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7">
         <v>0.83</v>
@@ -5344,13 +5344,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5376,7 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -5384,7 +5384,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5392,7 +5392,7 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5400,7 +5400,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5416,7 +5416,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5424,7 +5424,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -5464,17 +5464,17 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/HAMMOND_Data.xlsx
+++ b/HAMMOND_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="6336" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="6336"/>
   </bookViews>
   <sheets>
     <sheet name="Profiles" sheetId="2" r:id="rId1"/>
@@ -331,7 +331,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,13 +351,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -399,9 +392,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -409,17 +402,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -728,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AF60"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,3949 +832,3901 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>2642</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
         <v>2280</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
         <v>5</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
         <v>0.11</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8">
         <v>11.38</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8">
         <v>0</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8">
         <v>9</v>
       </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8">
         <v>8.25</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11">
+      <c r="T2" s="8"/>
+      <c r="U2" s="8">
         <v>5.6</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
       <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>2652</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8">
         <v>2634</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
         <v>85</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8">
         <v>0.01</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8">
         <v>11.36</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8">
         <v>106</v>
       </c>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8">
         <v>7.54</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8">
         <v>1.3</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8">
         <v>5.2</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8">
         <v>14.5</v>
       </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11">
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8">
         <v>0.64</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8">
         <v>0.09</v>
       </c>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11">
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8">
         <v>0.06</v>
       </c>
       <c r="AF3" s="3"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>2720</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8">
         <v>2760</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
         <v>129</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11">
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
         <v>0.27</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11">
+      <c r="L4" s="8"/>
+      <c r="M4" s="8">
         <v>11.54</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11">
+      <c r="N4" s="8"/>
+      <c r="O4" s="8">
         <v>2.5</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8">
         <v>136</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8">
         <v>7.39</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8">
         <v>1</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11">
+      <c r="V4" s="8"/>
+      <c r="W4" s="8">
         <v>1.4</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11">
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8">
         <v>11.8</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11">
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8">
         <v>0.54</v>
       </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11">
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8">
         <v>0.06</v>
       </c>
       <c r="AF4" s="3"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>2820</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
         <v>2872</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8">
         <v>134</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11">
+      <c r="J5" s="8"/>
+      <c r="K5" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="L5" s="8"/>
+      <c r="M5" s="8">
         <v>11.51</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11">
+      <c r="N5" s="8"/>
+      <c r="O5" s="8">
         <v>2.1</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8">
         <v>145</v>
       </c>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11">
+      <c r="R5" s="8"/>
+      <c r="S5" s="8">
         <v>7.37</v>
       </c>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8">
         <v>1</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11">
+      <c r="V5" s="8"/>
+      <c r="W5" s="8">
         <v>-0.4</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11">
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8">
         <v>10.9</v>
       </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11">
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11">
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
         <v>3</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>4</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>2868</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8">
         <v>2913</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
         <v>133</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8">
         <v>3.3</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
         <v>11.31</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8">
         <v>2.5</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8">
         <v>156</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8">
         <v>7.39</v>
       </c>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8">
         <v>1</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11">
+      <c r="V6" s="8"/>
+      <c r="W6" s="8">
         <v>-1.8</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11">
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8">
         <v>9.6</v>
       </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11">
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8">
         <v>1.01</v>
       </c>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11">
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11">
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>3020</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8">
         <v>3037</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8">
         <v>147</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
         <v>3.9</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
+      <c r="L7" s="8"/>
+      <c r="M7" s="8">
         <v>11.36</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11">
+      <c r="N7" s="8"/>
+      <c r="O7" s="8">
         <v>3.9</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8">
         <v>165</v>
       </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11">
+      <c r="R7" s="8"/>
+      <c r="S7" s="8">
         <v>7.46</v>
       </c>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8">
         <v>1.3</v>
       </c>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11">
+      <c r="V7" s="8"/>
+      <c r="W7" s="8">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11">
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11">
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8">
         <v>1.01</v>
       </c>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11">
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8">
         <v>0.08</v>
       </c>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11">
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>8</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>2915</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8">
         <v>2915</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
         <v>137</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
+      <c r="L8" s="8"/>
+      <c r="M8" s="8">
         <v>11.41</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8">
         <v>2.4</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8">
         <v>118</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11">
+      <c r="R8" s="8"/>
+      <c r="S8" s="8">
         <v>7.5</v>
       </c>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8">
         <v>1.4</v>
       </c>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11">
+      <c r="V8" s="8"/>
+      <c r="W8" s="8">
         <v>-1.7000000000000002</v>
       </c>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11">
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11">
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8">
         <v>0.42</v>
       </c>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11">
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8">
         <v>0.04</v>
       </c>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11">
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8">
         <v>0.04</v>
       </c>
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8">
         <v>8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>10.3</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>2863</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
         <v>2743</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <v>244</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
         <v>0.27</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8">
         <v>11.34</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11">
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
         <v>2.1</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
         <v>48</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11">
+      <c r="R9" s="8"/>
+      <c r="S9" s="8">
         <v>7.79</v>
       </c>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
+      <c r="T9" s="8"/>
+      <c r="U9" s="8">
         <v>2.5</v>
       </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11">
+      <c r="V9" s="8"/>
+      <c r="W9" s="8">
         <v>0.1</v>
       </c>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11">
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8">
         <v>11.2</v>
       </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11">
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8">
         <v>0.38</v>
       </c>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11">
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8">
         <v>0.04</v>
       </c>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11">
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
         <v>10.3</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>14.3</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>2957</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8">
         <v>2834</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <v>137</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <v>0.01</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8">
         <v>11.17</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11">
+      <c r="N10" s="8"/>
+      <c r="O10" s="8">
         <v>1.8</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8">
         <v>111</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11">
+      <c r="R10" s="8"/>
+      <c r="S10" s="8">
         <v>7.79</v>
       </c>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8">
         <v>2.5</v>
       </c>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11">
+      <c r="V10" s="8"/>
+      <c r="W10" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11">
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8">
         <v>14.2</v>
       </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11">
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8">
         <v>0.33</v>
       </c>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11">
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8">
         <v>0.15</v>
       </c>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11">
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8">
         <v>4.7E-2</v>
       </c>
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
         <v>14.3</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>15.8</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
         <v>188</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
         <v>0.01</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
         <v>10.99</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11">
+      <c r="N11" s="8"/>
+      <c r="O11" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8">
         <v>85</v>
       </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11">
+      <c r="R11" s="8"/>
+      <c r="S11" s="8">
         <v>7.47</v>
       </c>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8">
         <v>0.35</v>
       </c>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11">
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8">
         <v>0.06</v>
       </c>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11">
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>2673</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8">
         <v>2349</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8">
         <v>2</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8">
         <v>0.17</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
         <v>11.75</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11">
+      <c r="N12" s="8"/>
+      <c r="O12" s="8">
         <v>0</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8">
         <v>9</v>
       </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11">
+      <c r="R12" s="8"/>
+      <c r="S12" s="8">
         <v>8.19</v>
       </c>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11">
+      <c r="T12" s="8"/>
+      <c r="U12" s="8">
         <v>5.3</v>
       </c>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11">
+      <c r="V12" s="8"/>
+      <c r="W12" s="8">
         <v>-0.60000000000000009</v>
       </c>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
         <v>0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="8">
         <v>1.5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>2796</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
         <v>2767</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8">
         <v>47</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
+      <c r="J13" s="8"/>
+      <c r="K13" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
         <v>11.43</v>
       </c>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11">
+      <c r="N13" s="8"/>
+      <c r="O13" s="8">
         <v>12.8</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8">
         <v>159</v>
       </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11">
+      <c r="R13" s="8"/>
+      <c r="S13" s="8">
         <v>7.57</v>
       </c>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11">
+      <c r="T13" s="8"/>
+      <c r="U13" s="8">
         <v>1.5</v>
       </c>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11">
+      <c r="V13" s="8"/>
+      <c r="W13" s="8">
         <v>-2.8</v>
       </c>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11">
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8">
         <v>6.9</v>
       </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11">
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8">
         <v>0.78</v>
       </c>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11">
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8">
         <v>0.26</v>
       </c>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11">
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8">
         <v>1.5</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>2.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>2978</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
         <v>2961</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8">
         <v>94</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11">
+      <c r="J14" s="8"/>
+      <c r="K14" s="8">
         <v>10.6</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
+      <c r="L14" s="8"/>
+      <c r="M14" s="8">
         <v>11.55</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8">
         <v>0.01</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11">
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8">
         <v>218</v>
       </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11">
+      <c r="R14" s="8"/>
+      <c r="S14" s="8">
         <v>7.54</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11">
+      <c r="T14" s="8"/>
+      <c r="U14" s="8">
         <v>1.5</v>
       </c>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11">
+      <c r="V14" s="8"/>
+      <c r="W14" s="8">
         <v>-3.9</v>
       </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11">
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8">
         <v>15.5</v>
       </c>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11">
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8">
         <v>0.64</v>
       </c>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11">
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8">
         <v>0.23</v>
       </c>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11">
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8">
         <v>0.05</v>
       </c>
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8">
         <v>2.5</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <v>3.5</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8">
         <v>85</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11">
+      <c r="J15" s="8"/>
+      <c r="K15" s="8">
         <v>3.9</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8">
         <v>11.53</v>
       </c>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11">
+      <c r="N15" s="8"/>
+      <c r="O15" s="8">
         <v>0.01</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11">
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8">
         <v>187</v>
       </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11">
+      <c r="R15" s="8"/>
+      <c r="S15" s="8">
         <v>7.57</v>
       </c>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11">
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8">
         <v>0.45</v>
       </c>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11">
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8">
         <v>0.13</v>
       </c>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11">
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8">
         <v>3.5</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="8">
         <v>5.5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>2894</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
         <v>2905</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8">
         <v>85</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11">
+      <c r="J16" s="8"/>
+      <c r="K16" s="8">
         <v>5.5</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8">
         <v>11.46</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11">
+      <c r="N16" s="8"/>
+      <c r="O16" s="8">
         <v>0.02</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11">
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8">
         <v>136</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11">
+      <c r="R16" s="8"/>
+      <c r="S16" s="8">
         <v>7.47</v>
       </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11">
+      <c r="T16" s="8"/>
+      <c r="U16" s="8">
         <v>1.3</v>
       </c>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11">
+      <c r="V16" s="8"/>
+      <c r="W16" s="8">
         <v>-2.8</v>
       </c>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11">
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8">
         <v>15.3</v>
       </c>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11">
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8">
         <v>0.52</v>
       </c>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11">
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8">
         <v>0.08</v>
       </c>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11">
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8">
         <v>3.9E-2</v>
       </c>
       <c r="AF16" s="3"/>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8">
         <v>5.5</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>7.5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>2737</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
         <v>2716</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8">
         <v>51</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11">
+      <c r="J17" s="8"/>
+      <c r="K17" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8">
         <v>11.44</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11">
+      <c r="N17" s="8"/>
+      <c r="O17" s="8">
         <v>2.9</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8">
         <v>122</v>
       </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11">
+      <c r="R17" s="8"/>
+      <c r="S17" s="8">
         <v>7.55</v>
       </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11">
+      <c r="T17" s="8"/>
+      <c r="U17" s="8">
         <v>1.4</v>
       </c>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11">
+      <c r="V17" s="8"/>
+      <c r="W17" s="8">
         <v>-1.9</v>
       </c>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11">
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8">
         <v>9.4</v>
       </c>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11">
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8">
         <v>0.45</v>
       </c>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11">
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8">
         <v>0.17</v>
       </c>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11">
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8">
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="AF17" s="3"/>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8">
         <v>7.5</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>9.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>2685</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
         <v>2645</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8">
         <v>37</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11">
+      <c r="J18" s="8"/>
+      <c r="K18" s="8">
         <v>3.9</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
+      <c r="L18" s="8"/>
+      <c r="M18" s="8">
         <v>11.27</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11">
+      <c r="N18" s="8"/>
+      <c r="O18" s="8">
         <v>9.1</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11">
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8">
         <v>108</v>
       </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11">
+      <c r="R18" s="8"/>
+      <c r="S18" s="8">
         <v>7.6</v>
       </c>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11">
+      <c r="T18" s="8"/>
+      <c r="U18" s="8">
         <v>1.5</v>
       </c>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11">
+      <c r="V18" s="8"/>
+      <c r="W18" s="8">
         <v>2.7</v>
       </c>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11">
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8">
         <v>7.3</v>
       </c>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11">
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8">
         <v>0.65</v>
       </c>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11">
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8">
         <v>0.16</v>
       </c>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11">
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AF18" s="3"/>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8">
         <v>9.5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>13.5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>2946</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
         <v>2901</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8">
         <v>45</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11">
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
         <v>1.7000000000000002</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8">
         <v>11.21</v>
       </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11">
+      <c r="N19" s="8"/>
+      <c r="O19" s="8">
         <v>0.01</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8">
         <v>117</v>
       </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11">
+      <c r="R19" s="8"/>
+      <c r="S19" s="8">
         <v>7.61</v>
       </c>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11">
+      <c r="T19" s="8"/>
+      <c r="U19" s="8">
         <v>1.7000000000000002</v>
       </c>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11">
+      <c r="V19" s="8"/>
+      <c r="W19" s="8">
         <v>-1.7000000000000002</v>
       </c>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11">
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11">
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8">
         <v>0.30000000000000004</v>
       </c>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11">
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8">
         <v>0.09</v>
       </c>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11">
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="AF19" s="3"/>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8">
         <v>0</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>2659</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
         <v>2498</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8">
         <v>2</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11">
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
         <v>0.77</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11">
+      <c r="L20" s="8"/>
+      <c r="M20" s="8">
         <v>12.15</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11">
+      <c r="N20" s="8"/>
+      <c r="O20" s="8">
         <v>0</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8">
         <v>35</v>
       </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11">
+      <c r="R20" s="8"/>
+      <c r="S20" s="8">
         <v>7.89</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8">
         <v>3.1</v>
       </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11">
+      <c r="V20" s="8"/>
+      <c r="W20" s="8">
         <v>-1.7000000000000002</v>
       </c>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+    <row r="21" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
         <v>0</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>2703</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
         <v>2719</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8">
         <v>73</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11">
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
         <v>1.6</v>
       </c>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8">
         <v>11.76</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11">
+      <c r="N21" s="8"/>
+      <c r="O21" s="8">
         <v>1.3</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11">
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8">
         <v>116</v>
       </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11">
+      <c r="R21" s="8"/>
+      <c r="S21" s="8">
         <v>7.45</v>
       </c>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11">
+      <c r="T21" s="8"/>
+      <c r="U21" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11">
+      <c r="V21" s="8"/>
+      <c r="W21" s="8">
         <v>-1.2</v>
       </c>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11">
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8">
         <v>11</v>
       </c>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11">
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8">
         <v>1.38</v>
       </c>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11">
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8">
         <v>0.22</v>
       </c>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11">
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="AH21"/>
-      <c r="AJ21"/>
-    </row>
-    <row r="22" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    </row>
+    <row r="22" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>2782</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
         <v>2753</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8">
         <v>64</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11">
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
         <v>3.8</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
+      <c r="L22" s="8"/>
+      <c r="M22" s="8">
         <v>11.61</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11">
+      <c r="N22" s="8"/>
+      <c r="O22" s="8">
         <v>31</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11">
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8">
         <v>157</v>
       </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11">
+      <c r="R22" s="8"/>
+      <c r="S22" s="8">
         <v>7.57</v>
       </c>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11">
+      <c r="T22" s="8"/>
+      <c r="U22" s="8">
         <v>1.5</v>
       </c>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11">
+      <c r="V22" s="8"/>
+      <c r="W22" s="8">
         <v>-2.7</v>
       </c>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11">
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8">
         <v>5.8</v>
       </c>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11">
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8">
         <v>0.93</v>
       </c>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11">
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8">
         <v>0.23</v>
       </c>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11">
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8">
         <v>7.2000000000000008E-2</v>
       </c>
-      <c r="AH22"/>
-      <c r="AJ22"/>
-    </row>
-    <row r="23" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+    </row>
+    <row r="23" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8">
         <v>2</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>2903</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
         <v>2882</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11">
+      <c r="H23" s="8"/>
+      <c r="I23" s="8">
         <v>65</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11">
+      <c r="J23" s="8"/>
+      <c r="K23" s="8">
         <v>5.8</v>
       </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11">
+      <c r="L23" s="8"/>
+      <c r="M23" s="8">
         <v>11.84</v>
       </c>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11">
+      <c r="N23" s="8"/>
+      <c r="O23" s="8">
         <v>37</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8">
         <v>180</v>
       </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11">
+      <c r="R23" s="8"/>
+      <c r="S23" s="8">
         <v>7.55</v>
       </c>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11">
+      <c r="T23" s="8"/>
+      <c r="U23" s="8">
         <v>1.5</v>
       </c>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11">
+      <c r="V23" s="8"/>
+      <c r="W23" s="8">
         <v>-3.2</v>
       </c>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11">
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8">
         <v>5.3</v>
       </c>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8">
         <v>0.93</v>
       </c>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11">
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8">
         <v>0.16</v>
       </c>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11">
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="AH23"/>
-      <c r="AJ23"/>
-    </row>
-    <row r="24" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    </row>
+    <row r="24" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
         <v>3</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="8">
         <v>4</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>2903</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
         <v>2870</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11">
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
         <v>57</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11">
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
         <v>6.6</v>
       </c>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
+      <c r="L24" s="8"/>
+      <c r="M24" s="8">
         <v>11.82</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11">
+      <c r="N24" s="8"/>
+      <c r="O24" s="8">
         <v>25</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11">
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8">
         <v>206</v>
       </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11">
+      <c r="R24" s="8"/>
+      <c r="S24" s="8">
         <v>7.58</v>
       </c>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11">
+      <c r="T24" s="8"/>
+      <c r="U24" s="8">
         <v>1.6</v>
       </c>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11">
+      <c r="V24" s="8"/>
+      <c r="W24" s="8">
         <v>-3.5</v>
       </c>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11">
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8">
         <v>5.6</v>
       </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11">
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8">
         <v>1</v>
       </c>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11">
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8">
         <v>0.18</v>
       </c>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11">
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="AH24"/>
-      <c r="AJ24"/>
-    </row>
-    <row r="25" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    </row>
+    <row r="25" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
         <v>4</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <v>6</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>3019</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
         <v>2974</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8">
         <v>71</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11">
+      <c r="J25" s="8"/>
+      <c r="K25" s="8">
         <v>7.4</v>
       </c>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11">
+      <c r="L25" s="8"/>
+      <c r="M25" s="8">
         <v>11.34</v>
       </c>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11">
+      <c r="N25" s="8"/>
+      <c r="O25" s="8">
         <v>33</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11">
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8">
         <v>235</v>
       </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11">
+      <c r="R25" s="8"/>
+      <c r="S25" s="8">
         <v>7.61</v>
       </c>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11">
+      <c r="T25" s="8"/>
+      <c r="U25" s="8">
         <v>1.7000000000000002</v>
       </c>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11">
+      <c r="V25" s="8"/>
+      <c r="W25" s="8">
         <v>-3.6</v>
       </c>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11">
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11">
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8">
         <v>0.84</v>
       </c>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11">
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11">
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="AH25"/>
-      <c r="AJ25"/>
-    </row>
-    <row r="26" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    </row>
+    <row r="26" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
         <v>6</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <v>8</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>3088</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
         <v>3085</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8">
         <v>74</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8">
         <v>14.3</v>
       </c>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8">
         <v>11.71</v>
       </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11">
+      <c r="N26" s="8"/>
+      <c r="O26" s="8">
         <v>53</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11">
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8">
         <v>275</v>
       </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11">
+      <c r="R26" s="8"/>
+      <c r="S26" s="8">
         <v>7.51</v>
       </c>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11">
+      <c r="T26" s="8"/>
+      <c r="U26" s="8">
         <v>1.5</v>
       </c>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11">
+      <c r="V26" s="8"/>
+      <c r="W26" s="8">
         <v>-4.2</v>
       </c>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11">
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11">
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8">
         <v>0.83</v>
       </c>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11">
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8">
         <v>0.09</v>
       </c>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11">
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8">
         <v>6.2E-2</v>
       </c>
-      <c r="AH26"/>
-      <c r="AJ26"/>
-    </row>
-    <row r="27" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+    </row>
+    <row r="27" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
         <v>8</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>10</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>3292</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
         <v>3304</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
         <v>82</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11">
+      <c r="L27" s="8"/>
+      <c r="M27" s="8">
         <v>11.75</v>
       </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11">
+      <c r="N27" s="8"/>
+      <c r="O27" s="8">
         <v>32</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11">
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8">
         <v>259</v>
       </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11">
+      <c r="R27" s="8"/>
+      <c r="S27" s="8">
         <v>7.48</v>
       </c>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11">
+      <c r="T27" s="8"/>
+      <c r="U27" s="8">
         <v>1.5</v>
       </c>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11">
+      <c r="V27" s="8"/>
+      <c r="W27" s="8">
         <v>-3.6</v>
       </c>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11">
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8">
         <v>5.2</v>
       </c>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11">
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8">
         <v>0.78</v>
       </c>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11">
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11">
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AH27"/>
-      <c r="AJ27"/>
-    </row>
-    <row r="28" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    </row>
+    <row r="28" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8">
         <v>10</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="8">
         <v>12</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <v>3334</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
         <v>3346</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8">
         <v>105</v>
       </c>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11">
+      <c r="J28" s="8"/>
+      <c r="K28" s="8">
         <v>6</v>
       </c>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8">
         <v>11.82</v>
       </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11">
+      <c r="N28" s="8"/>
+      <c r="O28" s="8">
         <v>17</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11">
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8">
         <v>198</v>
       </c>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11">
+      <c r="R28" s="8"/>
+      <c r="S28" s="8">
         <v>7.48</v>
       </c>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11">
+      <c r="T28" s="8"/>
+      <c r="U28" s="8">
         <v>1.5</v>
       </c>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11">
+      <c r="V28" s="8"/>
+      <c r="W28" s="8">
         <v>-3</v>
       </c>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11">
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8">
         <v>6.4</v>
       </c>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11">
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8">
         <v>0.78</v>
       </c>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11">
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8">
         <v>0.06</v>
       </c>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11">
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8">
         <v>5.9000000000000004E-2</v>
       </c>
-      <c r="AH28"/>
-      <c r="AJ28"/>
-    </row>
-    <row r="29" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    </row>
+    <row r="29" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
         <v>12</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="8">
         <v>16</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <v>3540</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
         <v>3526</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8">
         <v>120</v>
       </c>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11">
+      <c r="J29" s="8"/>
+      <c r="K29" s="8">
         <v>14</v>
       </c>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11">
+      <c r="L29" s="8"/>
+      <c r="M29" s="8">
         <v>11.82</v>
       </c>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11">
+      <c r="N29" s="8"/>
+      <c r="O29" s="8">
         <v>38</v>
       </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11">
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8">
         <v>221</v>
       </c>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11">
+      <c r="R29" s="8"/>
+      <c r="S29" s="8">
         <v>7.54</v>
       </c>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11">
+      <c r="T29" s="8"/>
+      <c r="U29" s="8">
         <v>1.8</v>
       </c>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11">
+      <c r="V29" s="8"/>
+      <c r="W29" s="8">
         <v>-4.3</v>
       </c>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11">
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8">
         <v>4.5</v>
       </c>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11">
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8">
         <v>0.74</v>
       </c>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11">
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8">
         <v>0.18</v>
       </c>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11">
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="AH29"/>
-      <c r="AJ29"/>
-    </row>
-    <row r="30" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    </row>
+    <row r="30" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8">
         <v>16</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="8">
         <v>20</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8">
         <v>113</v>
       </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11">
+      <c r="J30" s="8"/>
+      <c r="K30" s="8">
         <v>6</v>
       </c>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11">
+      <c r="L30" s="8"/>
+      <c r="M30" s="8">
         <v>11.7</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11">
+      <c r="N30" s="8"/>
+      <c r="O30" s="8">
         <v>20</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11">
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8">
         <v>176</v>
       </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11">
+      <c r="R30" s="8"/>
+      <c r="S30" s="8">
         <v>7.56</v>
       </c>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11">
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8">
         <v>-4.3</v>
       </c>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11">
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8">
         <v>4.5</v>
       </c>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11">
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8">
         <v>0.67</v>
       </c>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11">
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8">
         <v>0.26</v>
       </c>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11">
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8">
         <v>0.05</v>
       </c>
-      <c r="AH30"/>
-      <c r="AJ30"/>
-    </row>
-    <row r="31" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    </row>
+    <row r="31" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8">
         <v>0</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="8">
         <v>0</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="8">
         <v>2643</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
         <v>2365</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8">
         <v>1</v>
       </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11">
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
         <v>0.01</v>
       </c>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11">
+      <c r="L31" s="8"/>
+      <c r="M31" s="8">
         <v>12.17</v>
       </c>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11">
+      <c r="N31" s="8"/>
+      <c r="O31" s="8">
         <v>0</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11">
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8">
         <v>10</v>
       </c>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11">
+      <c r="R31" s="8"/>
+      <c r="S31" s="8">
         <v>8.1199999999999992</v>
       </c>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11">
+      <c r="T31" s="8"/>
+      <c r="U31" s="8">
         <v>4.7</v>
       </c>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11">
+      <c r="V31" s="8"/>
+      <c r="W31" s="8">
         <v>3.3</v>
       </c>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AH31"/>
-      <c r="AJ31"/>
-    </row>
-    <row r="32" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+    </row>
+    <row r="32" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8">
         <v>0</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="8">
         <v>2620</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8">
         <v>2682</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
         <v>33</v>
       </c>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11">
+      <c r="J32" s="8"/>
+      <c r="K32" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8">
         <v>11.63</v>
       </c>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11">
+      <c r="N32" s="8"/>
+      <c r="O32" s="8">
         <v>47</v>
       </c>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11">
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8">
         <v>197</v>
       </c>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11">
+      <c r="R32" s="8"/>
+      <c r="S32" s="8">
         <v>7.33</v>
       </c>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11">
+      <c r="T32" s="8"/>
+      <c r="U32" s="8">
         <v>0.8</v>
       </c>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11">
+      <c r="V32" s="8"/>
+      <c r="W32" s="8">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11">
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8">
         <v>6.9</v>
       </c>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11">
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11">
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8">
         <v>0.08</v>
       </c>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11">
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="AH32"/>
-      <c r="AJ32"/>
-    </row>
-    <row r="33" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    </row>
+    <row r="33" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="8">
         <v>2</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="8">
         <v>2716</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8">
         <v>2710</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8">
         <v>52</v>
       </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8">
         <v>7.4</v>
       </c>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11">
+      <c r="L33" s="8"/>
+      <c r="M33" s="8">
         <v>11.74</v>
       </c>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11">
+      <c r="N33" s="8"/>
+      <c r="O33" s="8">
         <v>71</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11">
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8">
         <v>231</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11">
+      <c r="R33" s="8"/>
+      <c r="S33" s="8">
         <v>7.51</v>
       </c>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11">
+      <c r="T33" s="8"/>
+      <c r="U33" s="8">
         <v>1.3</v>
       </c>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11">
+      <c r="V33" s="8"/>
+      <c r="W33" s="8">
         <v>-3.4</v>
       </c>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11">
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8">
         <v>4.3</v>
       </c>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11">
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8">
         <v>0.51</v>
       </c>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11">
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8">
         <v>0.05</v>
       </c>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11">
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="AH33"/>
-      <c r="AJ33"/>
-    </row>
-    <row r="34" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    </row>
+    <row r="34" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8">
         <v>2</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="8">
         <v>3</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="8">
         <v>2713</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8">
         <v>2699</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8">
         <v>48</v>
       </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
         <v>16.8</v>
       </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11">
+      <c r="L34" s="8"/>
+      <c r="M34" s="8">
         <v>11.54</v>
       </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11">
+      <c r="N34" s="8"/>
+      <c r="O34" s="8">
         <v>47</v>
       </c>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11">
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8">
         <v>240</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11">
+      <c r="R34" s="8"/>
+      <c r="S34" s="8">
         <v>7.53</v>
       </c>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11">
+      <c r="T34" s="8"/>
+      <c r="U34" s="8">
         <v>1.4</v>
       </c>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11">
+      <c r="V34" s="8"/>
+      <c r="W34" s="8">
         <v>-4.5</v>
       </c>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11">
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11">
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8">
         <v>0.49</v>
       </c>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11">
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8">
         <v>0.11</v>
       </c>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11">
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AH34"/>
-      <c r="AJ34"/>
-    </row>
-    <row r="35" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    </row>
+    <row r="35" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8">
         <v>3</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="8">
         <v>4</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="8">
         <v>2598</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8">
         <v>2573</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
         <v>47</v>
       </c>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
         <v>2.5</v>
       </c>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8">
         <v>11.5</v>
       </c>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11">
+      <c r="N35" s="8"/>
+      <c r="O35" s="8">
         <v>39</v>
       </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8">
         <v>221</v>
       </c>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11">
+      <c r="R35" s="8"/>
+      <c r="S35" s="8">
         <v>7.56</v>
       </c>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11">
+      <c r="T35" s="8"/>
+      <c r="U35" s="8">
         <v>1.4</v>
       </c>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11">
+      <c r="V35" s="8"/>
+      <c r="W35" s="8">
         <v>-2.1</v>
       </c>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11">
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8">
         <v>5.9</v>
       </c>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11">
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8">
         <v>0.46</v>
       </c>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11">
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8">
         <v>0.04</v>
       </c>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11">
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AH35"/>
-      <c r="AJ35"/>
-    </row>
-    <row r="36" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    </row>
+    <row r="36" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8">
         <v>4</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="8">
         <v>6</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="8">
         <v>2768</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
         <v>2747</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8">
         <v>51</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8">
         <v>3</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11">
+      <c r="L36" s="8"/>
+      <c r="M36" s="8">
         <v>11.88</v>
       </c>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11">
+      <c r="N36" s="8"/>
+      <c r="O36" s="8">
         <v>36</v>
       </c>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11">
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8">
         <v>271</v>
       </c>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11">
+      <c r="R36" s="8"/>
+      <c r="S36" s="8">
         <v>7.55</v>
       </c>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11">
+      <c r="T36" s="8"/>
+      <c r="U36" s="8">
         <v>1.5</v>
       </c>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11">
+      <c r="V36" s="8"/>
+      <c r="W36" s="8">
         <v>-2.4</v>
       </c>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11">
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8">
         <v>5.9</v>
       </c>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11">
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8">
         <v>0.46</v>
       </c>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11">
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8">
         <v>0.02</v>
       </c>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11">
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="AH36"/>
-      <c r="AJ36"/>
-    </row>
-    <row r="37" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    </row>
+    <row r="37" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8">
         <v>6</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="8">
         <v>8</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <v>2841</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8">
         <v>2821</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8">
         <v>68</v>
       </c>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11">
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
         <v>2.8</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11">
+      <c r="L37" s="8"/>
+      <c r="M37" s="8">
         <v>11.67</v>
       </c>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11">
+      <c r="N37" s="8"/>
+      <c r="O37" s="8">
         <v>15</v>
       </c>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11">
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8">
         <v>337</v>
       </c>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11">
+      <c r="R37" s="8"/>
+      <c r="S37" s="8">
         <v>7.55</v>
       </c>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11">
+      <c r="T37" s="8"/>
+      <c r="U37" s="8">
         <v>1.5</v>
       </c>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11">
+      <c r="V37" s="8"/>
+      <c r="W37" s="8">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11">
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8">
         <v>7.1</v>
       </c>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11">
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8">
         <v>0.45</v>
       </c>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11">
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8">
         <v>0.04</v>
       </c>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11">
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8">
         <v>3.6000000000000004E-2</v>
       </c>
-      <c r="AH37"/>
-      <c r="AJ37"/>
-    </row>
-    <row r="38" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    </row>
+    <row r="38" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8">
         <v>8</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="8">
         <v>10</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="8">
         <v>3099</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
         <v>3179</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8">
         <v>81</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8">
         <v>3.9</v>
       </c>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11">
+      <c r="L38" s="8"/>
+      <c r="M38" s="8">
         <v>11.76</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11">
+      <c r="N38" s="8"/>
+      <c r="O38" s="8">
         <v>33</v>
       </c>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11">
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8">
         <v>418</v>
       </c>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11">
+      <c r="R38" s="8"/>
+      <c r="S38" s="8">
         <v>7.33</v>
       </c>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11">
+      <c r="T38" s="8"/>
+      <c r="U38" s="8">
         <v>1</v>
       </c>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11">
+      <c r="V38" s="8"/>
+      <c r="W38" s="8">
         <v>-1.9</v>
       </c>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11">
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>6.3</v>
       </c>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11">
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8">
         <v>0.44</v>
       </c>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
-      <c r="AE38" s="11">
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="AH38"/>
-      <c r="AJ38"/>
-    </row>
-    <row r="39" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    </row>
+    <row r="39" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8">
         <v>10</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="8">
         <v>14</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="8">
         <v>3236</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8">
         <v>3302</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11">
+      <c r="H39" s="8"/>
+      <c r="I39" s="8">
         <v>91</v>
       </c>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8">
         <v>2.8</v>
       </c>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11">
+      <c r="L39" s="8"/>
+      <c r="M39" s="8">
         <v>11.6</v>
       </c>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11">
+      <c r="N39" s="8"/>
+      <c r="O39" s="8">
         <v>20</v>
       </c>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11">
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8">
         <v>381</v>
       </c>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11">
+      <c r="R39" s="8"/>
+      <c r="S39" s="8">
         <v>7.37</v>
       </c>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11">
+      <c r="T39" s="8"/>
+      <c r="U39" s="8">
         <v>1.2</v>
       </c>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11">
+      <c r="V39" s="8"/>
+      <c r="W39" s="8">
         <v>-1.6</v>
       </c>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11">
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8">
         <v>7.1</v>
       </c>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11">
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8">
         <v>0.44</v>
       </c>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11">
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AH39"/>
-      <c r="AJ39"/>
-    </row>
-    <row r="40" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+    </row>
+    <row r="40" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8">
         <v>0</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="8">
         <v>0</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="8">
         <v>2680</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8">
         <v>2293</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8">
         <v>9</v>
       </c>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11">
+      <c r="J40" s="8"/>
+      <c r="K40" s="8">
         <v>0.1</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11">
+      <c r="L40" s="8"/>
+      <c r="M40" s="8">
         <v>11.49</v>
       </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11">
+      <c r="N40" s="8"/>
+      <c r="O40" s="8">
         <v>0</v>
       </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11">
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8">
         <v>11</v>
       </c>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11">
+      <c r="R40" s="8"/>
+      <c r="S40" s="8">
         <v>8.2799999999999994</v>
       </c>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11">
+      <c r="T40" s="8"/>
+      <c r="U40" s="8">
         <v>6</v>
       </c>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11">
+      <c r="V40" s="8"/>
+      <c r="W40" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="11"/>
-      <c r="AD40" s="11"/>
-      <c r="AE40" s="11"/>
-      <c r="AH40"/>
-      <c r="AJ40"/>
-    </row>
-    <row r="41" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+    </row>
+    <row r="41" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8">
         <v>0</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="8">
         <v>3402</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8">
         <v>3605</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11">
+      <c r="H41" s="8"/>
+      <c r="I41" s="8">
         <v>85</v>
       </c>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11">
+      <c r="J41" s="8"/>
+      <c r="K41" s="8">
         <v>36</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11">
+      <c r="L41" s="8"/>
+      <c r="M41" s="8">
         <v>11.31</v>
       </c>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11">
+      <c r="N41" s="8"/>
+      <c r="O41" s="8">
         <v>203</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11">
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8">
         <v>247</v>
       </c>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11">
+      <c r="R41" s="8"/>
+      <c r="S41" s="8">
         <v>7.14</v>
       </c>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11">
+      <c r="T41" s="8"/>
+      <c r="U41" s="8">
         <v>0.7</v>
       </c>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11">
+      <c r="V41" s="8"/>
+      <c r="W41" s="8">
         <v>-4</v>
       </c>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11">
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8">
         <v>2.4</v>
       </c>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11">
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8">
         <v>1.41</v>
       </c>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="11">
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8">
         <v>0.57000000000000006</v>
       </c>
-      <c r="AD41" s="11"/>
-      <c r="AE41" s="11">
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8">
         <v>0.14400000000000002</v>
       </c>
-      <c r="AH41"/>
-      <c r="AJ41"/>
-    </row>
-    <row r="42" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+    </row>
+    <row r="42" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8">
         <v>1</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <v>2</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="8">
         <v>3840</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8">
         <v>4069</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11">
+      <c r="H42" s="8"/>
+      <c r="I42" s="8">
         <v>139</v>
       </c>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11">
+      <c r="J42" s="8"/>
+      <c r="K42" s="8">
         <v>71</v>
       </c>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11">
+      <c r="L42" s="8"/>
+      <c r="M42" s="8">
         <v>11.53</v>
       </c>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11">
+      <c r="N42" s="8"/>
+      <c r="O42" s="8">
         <v>224</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11">
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8">
         <v>364</v>
       </c>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11">
+      <c r="R42" s="8"/>
+      <c r="S42" s="8">
         <v>7.14</v>
       </c>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11">
+      <c r="T42" s="8"/>
+      <c r="U42" s="8">
         <v>0.8</v>
       </c>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11">
+      <c r="V42" s="8"/>
+      <c r="W42" s="8">
         <v>-5</v>
       </c>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11">
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8">
         <v>1.7000000000000002</v>
       </c>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11">
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8">
         <v>1.3</v>
       </c>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="11">
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8">
         <v>0.57000000000000006</v>
       </c>
-      <c r="AD42" s="11"/>
-      <c r="AE42" s="11">
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8">
         <v>0.11900000000000001</v>
       </c>
-      <c r="AH42"/>
-      <c r="AJ42"/>
-    </row>
-    <row r="43" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+    </row>
+    <row r="43" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8">
         <v>2</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="8">
         <v>3</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="8">
         <v>4383</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8">
         <v>4554</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11">
+      <c r="H43" s="8"/>
+      <c r="I43" s="8">
         <v>190</v>
       </c>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11">
+      <c r="J43" s="8"/>
+      <c r="K43" s="8">
         <v>90</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11">
+      <c r="L43" s="8"/>
+      <c r="M43" s="8">
         <v>11.43</v>
       </c>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11">
+      <c r="N43" s="8"/>
+      <c r="O43" s="8">
         <v>251</v>
       </c>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11">
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8">
         <v>404</v>
       </c>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11">
+      <c r="R43" s="8"/>
+      <c r="S43" s="8">
         <v>7.26</v>
       </c>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11">
+      <c r="T43" s="8"/>
+      <c r="U43" s="8">
         <v>1.2</v>
       </c>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11">
+      <c r="V43" s="8"/>
+      <c r="W43" s="8">
         <v>-5.7</v>
       </c>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11">
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11">
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8">
         <v>1.25</v>
       </c>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11">
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8">
         <v>0.63</v>
       </c>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11">
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8">
         <v>0.10400000000000001</v>
       </c>
-      <c r="AH43"/>
-      <c r="AJ43"/>
-    </row>
-    <row r="44" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    </row>
+    <row r="44" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8">
         <v>3</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="8">
         <v>4</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="8">
         <v>4590</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8">
         <v>4785</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11">
+      <c r="H44" s="8"/>
+      <c r="I44" s="8">
         <v>235</v>
       </c>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11">
+      <c r="J44" s="8"/>
+      <c r="K44" s="8">
         <v>103</v>
       </c>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8">
         <v>11.65</v>
       </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11">
+      <c r="N44" s="8"/>
+      <c r="O44" s="8">
         <v>199</v>
       </c>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11">
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8">
         <v>432</v>
       </c>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11">
+      <c r="R44" s="8"/>
+      <c r="S44" s="8">
         <v>7.24</v>
       </c>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11">
+      <c r="T44" s="8"/>
+      <c r="U44" s="8">
         <v>1.2</v>
       </c>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11">
+      <c r="V44" s="8"/>
+      <c r="W44" s="8">
         <v>-5.8</v>
       </c>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11">
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8">
         <v>1.3</v>
       </c>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11">
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8">
         <v>1.2</v>
       </c>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11">
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8">
         <v>0.43</v>
       </c>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11">
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="AH44"/>
-      <c r="AJ44"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8">
         <v>4</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="8">
         <v>6</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="8">
         <v>5314</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8">
         <v>5608</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11">
+      <c r="H45" s="8"/>
+      <c r="I45" s="8">
         <v>321</v>
       </c>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11">
+      <c r="J45" s="8"/>
+      <c r="K45" s="8">
         <v>134</v>
       </c>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11">
+      <c r="L45" s="8"/>
+      <c r="M45" s="8">
         <v>11.53</v>
       </c>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11">
+      <c r="N45" s="8"/>
+      <c r="O45" s="8">
         <v>180</v>
       </c>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11">
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8">
         <v>482</v>
       </c>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11">
+      <c r="R45" s="8"/>
+      <c r="S45" s="8">
         <v>7.17</v>
       </c>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11">
+      <c r="T45" s="8"/>
+      <c r="U45" s="8">
         <v>1.2</v>
       </c>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11">
+      <c r="V45" s="8"/>
+      <c r="W45" s="8">
         <v>-5.9</v>
       </c>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11">
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8">
         <v>1.4</v>
       </c>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11">
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11">
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8">
         <v>0.19</v>
       </c>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="11">
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="AF45" s="3"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8">
         <v>6</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="8">
         <v>8</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="8">
         <v>5247</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8">
         <v>5492</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11">
+      <c r="H46" s="8"/>
+      <c r="I46" s="8">
         <v>301</v>
       </c>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11">
+      <c r="J46" s="8"/>
+      <c r="K46" s="8">
         <v>125</v>
       </c>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11">
+      <c r="L46" s="8"/>
+      <c r="M46" s="8">
         <v>11.53</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11">
+      <c r="N46" s="8"/>
+      <c r="O46" s="8">
         <v>90</v>
       </c>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11">
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8">
         <v>442</v>
       </c>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11">
+      <c r="R46" s="8"/>
+      <c r="S46" s="8">
         <v>7.22</v>
       </c>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11">
+      <c r="T46" s="8"/>
+      <c r="U46" s="8">
         <v>1.3</v>
       </c>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11">
+      <c r="V46" s="8"/>
+      <c r="W46" s="8">
         <v>-6</v>
       </c>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11">
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11">
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8">
         <v>1.34</v>
       </c>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11">
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8">
         <v>0.23</v>
       </c>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="11">
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8">
         <v>0.10200000000000001</v>
       </c>
       <c r="AF46" s="3"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8">
         <v>8</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>10</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="8">
         <v>5087</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8">
         <v>5281</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11">
+      <c r="H47" s="8"/>
+      <c r="I47" s="8">
         <v>272</v>
       </c>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11">
+      <c r="J47" s="8"/>
+      <c r="K47" s="8">
         <v>109</v>
       </c>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11">
+      <c r="L47" s="8"/>
+      <c r="M47" s="8">
         <v>11.44</v>
       </c>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11">
+      <c r="N47" s="8"/>
+      <c r="O47" s="8">
         <v>69</v>
       </c>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11">
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8">
         <v>394</v>
       </c>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11">
+      <c r="R47" s="8"/>
+      <c r="S47" s="8">
         <v>7.26</v>
       </c>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11">
+      <c r="T47" s="8"/>
+      <c r="U47" s="8">
         <v>1.4</v>
       </c>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11">
+      <c r="V47" s="8"/>
+      <c r="W47" s="8">
         <v>-6</v>
       </c>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11">
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8">
         <v>2.6</v>
       </c>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11">
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11">
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8">
         <v>0.18</v>
       </c>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11">
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AF47" s="3"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8">
         <v>10</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>14</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="8">
         <v>4675</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8">
         <v>4852</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11">
+      <c r="H48" s="8"/>
+      <c r="I48" s="8">
         <v>267</v>
       </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11">
+      <c r="J48" s="8"/>
+      <c r="K48" s="8">
         <v>87</v>
       </c>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11">
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8">
         <v>43</v>
       </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11">
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8">
         <v>406</v>
       </c>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11">
+      <c r="R48" s="8"/>
+      <c r="S48" s="8">
         <v>7.26</v>
       </c>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11">
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8">
         <v>-6</v>
       </c>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11">
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8">
         <v>3.4</v>
       </c>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11">
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8">
         <v>0.93</v>
       </c>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="11">
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8">
         <v>0.26</v>
       </c>
-      <c r="AD48" s="11"/>
-      <c r="AE48" s="11">
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="AF48" s="3"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
         <v>14</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="8">
         <v>18</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="8">
         <v>4594</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
         <v>4710</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11">
+      <c r="H49" s="8"/>
+      <c r="I49" s="8">
         <v>267</v>
       </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11">
+      <c r="J49" s="8"/>
+      <c r="K49" s="8">
         <v>92</v>
       </c>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11">
+      <c r="L49" s="8"/>
+      <c r="M49" s="8">
         <v>11.26</v>
       </c>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11">
+      <c r="N49" s="8"/>
+      <c r="O49" s="8">
         <v>33</v>
       </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11">
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8">
         <v>392</v>
       </c>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11">
+      <c r="R49" s="8"/>
+      <c r="S49" s="8">
         <v>7.35</v>
       </c>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11">
+      <c r="T49" s="8"/>
+      <c r="U49" s="8">
         <v>1.5</v>
       </c>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11">
+      <c r="V49" s="8"/>
+      <c r="W49" s="8">
         <v>-6</v>
       </c>
-      <c r="X49" s="11"/>
-      <c r="Y49" s="11">
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8">
         <v>3.5</v>
       </c>
-      <c r="Z49" s="11"/>
-      <c r="AA49" s="11">
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="AB49" s="11"/>
-      <c r="AC49" s="11">
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8">
         <v>0.18</v>
       </c>
-      <c r="AD49" s="11"/>
-      <c r="AE49" s="11">
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8">
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="AF49" s="3"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8">
         <v>18</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="8">
         <v>22</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="8">
         <v>4707</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8">
         <v>4805</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11">
+      <c r="H50" s="8"/>
+      <c r="I50" s="8">
         <v>236</v>
       </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11">
+      <c r="J50" s="8"/>
+      <c r="K50" s="8">
         <v>73</v>
       </c>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11">
+      <c r="L50" s="8"/>
+      <c r="M50" s="8">
         <v>11.26</v>
       </c>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11">
+      <c r="N50" s="8"/>
+      <c r="O50" s="8">
         <v>34</v>
       </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11">
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8">
         <v>346</v>
       </c>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11">
+      <c r="R50" s="8"/>
+      <c r="S50" s="8">
         <v>7.37</v>
       </c>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11">
+      <c r="T50" s="8"/>
+      <c r="U50" s="8">
         <v>1.6</v>
       </c>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11">
+      <c r="V50" s="8"/>
+      <c r="W50" s="8">
         <v>-5.8</v>
       </c>
-      <c r="X50" s="11"/>
-      <c r="Y50" s="11">
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8">
         <v>3.6</v>
       </c>
-      <c r="Z50" s="11"/>
-      <c r="AA50" s="11">
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8">
         <v>0.95</v>
       </c>
-      <c r="AB50" s="11"/>
-      <c r="AC50" s="11">
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8">
         <v>0.19</v>
       </c>
-      <c r="AD50" s="11"/>
-      <c r="AE50" s="11"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
       <c r="AF50" s="3"/>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8">
         <v>22</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="8">
         <v>26</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="8">
         <v>4721</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8">
         <v>4793</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11">
+      <c r="H51" s="8"/>
+      <c r="I51" s="8">
         <v>261</v>
       </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8">
         <v>55</v>
       </c>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11">
+      <c r="L51" s="8"/>
+      <c r="M51" s="8">
         <v>11.41</v>
       </c>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11">
+      <c r="N51" s="8"/>
+      <c r="O51" s="8">
         <v>20</v>
       </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11">
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8">
         <v>314</v>
       </c>
-      <c r="R51" s="11"/>
-      <c r="S51" s="11">
+      <c r="R51" s="8"/>
+      <c r="S51" s="8">
         <v>7.41</v>
       </c>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11">
+      <c r="T51" s="8"/>
+      <c r="U51" s="8">
         <v>1.8</v>
       </c>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11">
+      <c r="V51" s="8"/>
+      <c r="W51" s="8">
         <v>-5.6</v>
       </c>
-      <c r="X51" s="11"/>
-      <c r="Y51" s="11">
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Z51" s="11"/>
-      <c r="AA51" s="11"/>
-      <c r="AB51" s="11"/>
-      <c r="AC51" s="11"/>
-      <c r="AD51" s="11"/>
-      <c r="AE51" s="11"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
       <c r="AF51" s="3"/>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8">
         <v>0</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="8">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="8">
         <v>2611</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8">
         <v>2245</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11">
+      <c r="H52" s="8"/>
+      <c r="I52" s="8">
         <v>2</v>
       </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11">
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
         <v>0.1</v>
       </c>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11">
+      <c r="L52" s="8"/>
+      <c r="M52" s="8">
         <v>11.72</v>
       </c>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11">
+      <c r="N52" s="8"/>
+      <c r="O52" s="8">
         <v>0</v>
       </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11">
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8">
         <v>13</v>
       </c>
-      <c r="R52" s="11"/>
-      <c r="S52" s="11">
+      <c r="R52" s="8"/>
+      <c r="S52" s="8">
         <v>8.26</v>
       </c>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11">
+      <c r="T52" s="8"/>
+      <c r="U52" s="8">
         <v>5.8</v>
       </c>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11">
+      <c r="V52" s="8"/>
+      <c r="W52" s="8">
         <v>-0.1</v>
       </c>
-      <c r="X52" s="11"/>
-      <c r="Y52" s="11">
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8">
         <v>0</v>
       </c>
-      <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
-      <c r="AB52" s="11"/>
-      <c r="AC52" s="11"/>
-      <c r="AD52" s="11"/>
-      <c r="AE52" s="11"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
       <c r="AF52" s="3"/>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8">
         <v>0</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="8">
         <v>1</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="8">
         <v>2725</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8">
         <v>2658</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11">
+      <c r="H53" s="8"/>
+      <c r="I53" s="8">
         <v>51</v>
       </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11">
+      <c r="J53" s="8"/>
+      <c r="K53" s="8">
         <v>5.8</v>
       </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11">
+      <c r="L53" s="8"/>
+      <c r="M53" s="8">
         <v>11.56</v>
       </c>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11">
+      <c r="N53" s="8"/>
+      <c r="O53" s="8">
         <v>55</v>
       </c>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11">
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8">
         <v>203</v>
       </c>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11">
+      <c r="R53" s="8"/>
+      <c r="S53" s="8">
         <v>7.67</v>
       </c>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11">
+      <c r="T53" s="8"/>
+      <c r="U53" s="8">
         <v>1.8</v>
       </c>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11">
+      <c r="V53" s="8"/>
+      <c r="W53" s="8">
         <v>-3.5</v>
       </c>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11">
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8">
         <v>4.5</v>
       </c>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11">
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8">
         <v>1.51</v>
       </c>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11">
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8">
         <v>0.24</v>
       </c>
-      <c r="AD53" s="11"/>
-      <c r="AE53" s="11">
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8">
         <v>0.13200000000000001</v>
       </c>
       <c r="AF53" s="3"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8">
         <v>1</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="8">
         <v>2</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="8">
         <v>3239</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8">
         <v>3246</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11">
+      <c r="H54" s="8"/>
+      <c r="I54" s="8">
         <v>76</v>
       </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11">
+      <c r="J54" s="8"/>
+      <c r="K54" s="8">
         <v>30</v>
       </c>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11">
+      <c r="L54" s="8"/>
+      <c r="M54" s="8">
         <v>11.65</v>
       </c>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11">
+      <c r="N54" s="8"/>
+      <c r="O54" s="8">
         <v>159</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11">
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8">
         <v>363</v>
       </c>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11">
+      <c r="R54" s="8"/>
+      <c r="S54" s="8">
         <v>7.49</v>
       </c>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11">
+      <c r="T54" s="8"/>
+      <c r="U54" s="8">
         <v>1.5</v>
       </c>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11">
+      <c r="V54" s="8"/>
+      <c r="W54" s="8">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11">
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8">
         <v>2.1</v>
       </c>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11">
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8">
         <v>1.3</v>
       </c>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11">
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8">
         <v>0.15</v>
       </c>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11">
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="AF54" s="3"/>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8">
         <v>2</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="8">
         <v>3</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="8">
         <v>3288</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8">
         <v>3342</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11">
+      <c r="H55" s="8"/>
+      <c r="I55" s="8">
         <v>158</v>
       </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11">
+      <c r="J55" s="8"/>
+      <c r="K55" s="8">
         <v>20</v>
       </c>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11">
+      <c r="L55" s="8"/>
+      <c r="M55" s="8">
         <v>11.59</v>
       </c>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11">
+      <c r="N55" s="8"/>
+      <c r="O55" s="8">
         <v>105</v>
       </c>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11">
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8">
         <v>414</v>
       </c>
-      <c r="R55" s="11"/>
-      <c r="S55" s="11">
+      <c r="R55" s="8"/>
+      <c r="S55" s="8">
         <v>7.39</v>
       </c>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11">
+      <c r="T55" s="8"/>
+      <c r="U55" s="8">
         <v>1.2</v>
       </c>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11">
+      <c r="V55" s="8"/>
+      <c r="W55" s="8">
         <v>-4.2</v>
       </c>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11">
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8">
         <v>3.2</v>
       </c>
-      <c r="Z55" s="11"/>
-      <c r="AA55" s="11">
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8">
         <v>1.23</v>
       </c>
-      <c r="AB55" s="11"/>
-      <c r="AC55" s="11">
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8">
         <v>0.2</v>
       </c>
-      <c r="AD55" s="11"/>
-      <c r="AE55" s="11">
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8">
         <v>0.128</v>
       </c>
       <c r="AF55" s="3"/>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8">
         <v>3</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="8">
         <v>4</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="8">
         <v>3555</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8">
         <v>3615</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11">
+      <c r="H56" s="8"/>
+      <c r="I56" s="8">
         <v>205</v>
       </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11">
+      <c r="J56" s="8"/>
+      <c r="K56" s="8">
         <v>44</v>
       </c>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11">
+      <c r="L56" s="8"/>
+      <c r="M56" s="8">
         <v>11.52</v>
       </c>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11">
+      <c r="N56" s="8"/>
+      <c r="O56" s="8">
         <v>93</v>
       </c>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11">
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8">
         <v>422</v>
       </c>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11">
+      <c r="R56" s="8"/>
+      <c r="S56" s="8">
         <v>7.39</v>
       </c>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11">
+      <c r="T56" s="8"/>
+      <c r="U56" s="8">
         <v>1.3</v>
       </c>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11">
+      <c r="V56" s="8"/>
+      <c r="W56" s="8">
         <v>-5.3</v>
       </c>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11">
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8">
         <v>2.7</v>
       </c>
-      <c r="Z56" s="11"/>
-      <c r="AA56" s="11">
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AB56" s="11"/>
-      <c r="AC56" s="11">
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8">
         <v>0.15</v>
       </c>
-      <c r="AD56" s="11"/>
-      <c r="AE56" s="11">
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8">
         <v>8.6000000000000007E-2</v>
       </c>
       <c r="AF56" s="3"/>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8">
         <v>4</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="8">
         <v>6</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="8">
         <v>3816</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8">
         <v>3882</v>
       </c>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11">
+      <c r="H57" s="8"/>
+      <c r="I57" s="8">
         <v>171</v>
       </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11">
+      <c r="J57" s="8"/>
+      <c r="K57" s="8">
         <v>39</v>
       </c>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11">
+      <c r="L57" s="8"/>
+      <c r="M57" s="8">
         <v>11.46</v>
       </c>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11">
+      <c r="N57" s="8"/>
+      <c r="O57" s="8">
         <v>62</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11">
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8">
         <v>396</v>
       </c>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11">
+      <c r="R57" s="8"/>
+      <c r="S57" s="8">
         <v>7.39</v>
       </c>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11">
+      <c r="T57" s="8"/>
+      <c r="U57" s="8">
         <v>1.4</v>
       </c>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11">
+      <c r="V57" s="8"/>
+      <c r="W57" s="8">
         <v>-5.0999999999999996</v>
       </c>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11">
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8">
         <v>3.3</v>
       </c>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="11">
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8">
         <v>1.1400000000000001</v>
       </c>
-      <c r="AB57" s="11"/>
-      <c r="AC57" s="11">
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8">
         <v>0.13</v>
       </c>
-      <c r="AD57" s="11"/>
-      <c r="AE57" s="11">
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8">
         <v>0.121</v>
       </c>
       <c r="AF57" s="3"/>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8">
         <v>6</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="8">
         <v>8</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="8">
         <v>3840</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8">
         <v>3885</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11">
+      <c r="H58" s="8"/>
+      <c r="I58" s="8">
         <v>179</v>
       </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11">
+      <c r="J58" s="8"/>
+      <c r="K58" s="8">
         <v>28</v>
       </c>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11">
+      <c r="L58" s="8"/>
+      <c r="M58" s="8">
         <v>11.65</v>
       </c>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11">
+      <c r="N58" s="8"/>
+      <c r="O58" s="8">
         <v>37</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11">
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8">
         <v>350</v>
       </c>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11">
+      <c r="R58" s="8"/>
+      <c r="S58" s="8">
         <v>7.43</v>
       </c>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11">
+      <c r="T58" s="8"/>
+      <c r="U58" s="8">
         <v>1.6</v>
       </c>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11">
+      <c r="V58" s="8"/>
+      <c r="W58" s="8">
         <v>-4.8</v>
       </c>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11">
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8">
         <v>4.2</v>
       </c>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11">
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8">
         <v>1.04</v>
       </c>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11">
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8">
         <v>0.12</v>
       </c>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11">
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="AF58" s="3"/>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8">
         <v>8</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="8">
         <v>10</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="8">
         <v>3952</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8">
         <v>4010</v>
       </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11">
+      <c r="H59" s="8"/>
+      <c r="I59" s="8">
         <v>238</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11">
+      <c r="J59" s="8"/>
+      <c r="K59" s="8">
         <v>22</v>
       </c>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11">
+      <c r="L59" s="8"/>
+      <c r="M59" s="8">
         <v>11.54</v>
       </c>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11">
+      <c r="N59" s="8"/>
+      <c r="O59" s="8">
         <v>28</v>
       </c>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11">
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8">
         <v>368</v>
       </c>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11">
+      <c r="R59" s="8"/>
+      <c r="S59" s="8">
         <v>7.41</v>
       </c>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11">
+      <c r="T59" s="8"/>
+      <c r="U59" s="8">
         <v>1.5</v>
       </c>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11">
+      <c r="V59" s="8"/>
+      <c r="W59" s="8">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="X59" s="11"/>
-      <c r="Y59" s="11">
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8">
         <v>4.8</v>
       </c>
-      <c r="Z59" s="11"/>
-      <c r="AA59" s="11">
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8">
         <v>1.2</v>
       </c>
-      <c r="AB59" s="11"/>
-      <c r="AC59" s="11">
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8">
         <v>0.12</v>
       </c>
-      <c r="AD59" s="11"/>
-      <c r="AE59" s="11">
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8">
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="AF59" s="3"/>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8">
         <v>10</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="8">
         <v>13</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="8">
         <v>4062</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8">
         <v>4123</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11">
+      <c r="H60" s="8"/>
+      <c r="I60" s="8">
         <v>189</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11">
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
         <v>23</v>
       </c>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11">
+      <c r="L60" s="8"/>
+      <c r="M60" s="8">
         <v>11.47</v>
       </c>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11">
+      <c r="N60" s="8"/>
+      <c r="O60" s="8">
         <v>28</v>
       </c>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11">
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8">
         <v>389</v>
       </c>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11">
+      <c r="R60" s="8"/>
+      <c r="S60" s="8">
         <v>7.41</v>
       </c>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11">
+      <c r="T60" s="8"/>
+      <c r="U60" s="8">
         <v>1.6</v>
       </c>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11">
+      <c r="V60" s="8"/>
+      <c r="W60" s="8">
         <v>-4.5</v>
       </c>
-      <c r="X60" s="11"/>
-      <c r="Y60" s="11">
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8">
         <v>4.8</v>
       </c>
-      <c r="Z60" s="11"/>
-      <c r="AA60" s="11">
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11">
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8">
         <v>0.17</v>
       </c>
-      <c r="AD60" s="11"/>
-      <c r="AE60" s="11">
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8">
         <v>0.122</v>
       </c>
       <c r="AF60" s="3"/>
@@ -4799,15 +4739,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4856,9 +4796,8 @@
       <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -4905,9 +4844,8 @@
       <c r="P2" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -4954,9 +4892,8 @@
       <c r="P3" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4976,7 +4913,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -5024,7 +4961,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -5072,7 +5009,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
@@ -5129,8 +5066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5148,7 +5085,7 @@
       <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -5225,7 +5162,7 @@
       <c r="D2">
         <v>44.2268326417704</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H2">
@@ -5245,7 +5182,7 @@
       <c r="D3">
         <v>44.253803596127248</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H3">
@@ -5265,7 +5202,7 @@
       <c r="D4">
         <v>44.289764868603044</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H4">
@@ -5285,7 +5222,7 @@
       <c r="D5">
         <v>44.374827109266946</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H5">
@@ -5305,7 +5242,7 @@
       <c r="D6">
         <v>44.742738589211619</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H6">
@@ -5325,7 +5262,7 @@
       <c r="D7">
         <v>44.744813278008301</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>72</v>
       </c>
       <c r="H7">
@@ -5344,7 +5281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -5399,7 +5336,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5407,7 +5344,7 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="11">
         <v>43035</v>
       </c>
     </row>
